--- a/examples/prueba.xlsx
+++ b/examples/prueba.xlsx
@@ -27,6 +27,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mmm d yyyy hh:mm AM/PM"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -64,9 +67,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +420,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,6 +449,11 @@
         <v>123.456</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2">
+        <v>42824.37045138889</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/examples/prueba.xlsx
+++ b/examples/prueba.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="hola" sheetId="1" r:id="rId1"/>
-    <sheet name="adiós" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -40,22 +40,29 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <strike/>
+      <u val="double"/>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="lightGray"/>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -63,13 +70,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left style="medium">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal style="double">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="45" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -110,7 +136,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1990725" y="190500"/>
+          <a:off x="2657475" y="190500"/>
           <a:ext cx="1929388" cy="1463043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -426,7 +452,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
